--- a/Collected_Data/Starfleet state U_data.xlsx
+++ b/Collected_Data/Starfleet state U_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\styler\Documents\CAIR 2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\styler\Documents\CAIR 2025\Collected_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD0E00AE-7BDA-4B9A-8FB1-AD72D537E111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F6C95F-1216-4C44-9D18-1992A82D4999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="3435" windowWidth="23400" windowHeight="15585" xr2:uid="{23C98854-689D-4614-BCEF-00B1B8F250B6}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21810" windowHeight="18855" xr2:uid="{23C98854-689D-4614-BCEF-00B1B8F250B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,15 +35,50 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Student_ID</t>
+  </si>
+  <si>
+    <t>Last_Name</t>
+  </si>
+  <si>
+    <t>First_Name</t>
+  </si>
+  <si>
+    <t>Middle_Initial</t>
+  </si>
+  <si>
+    <t>Date_of_Birth</t>
+  </si>
+  <si>
+    <t>CAIR_Program_Name</t>
+  </si>
+  <si>
+    <t>Hours of Participation</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,8 +101,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,12 +438,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA27F8DA-A225-4BFB-9E7F-13B2D04A13BB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Collected_Data/Starfleet state U_data.xlsx
+++ b/Collected_Data/Starfleet state U_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\styler\Documents\CAIR 2025\Collected_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F6C95F-1216-4C44-9D18-1992A82D4999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB831DC-AFDD-4791-A217-625C58FBEA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21810" windowHeight="18855" xr2:uid="{23C98854-689D-4614-BCEF-00B1B8F250B6}"/>
+    <workbookView xWindow="3075" yWindow="975" windowWidth="20805" windowHeight="15345" xr2:uid="{23C98854-689D-4614-BCEF-00B1B8F250B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -441,7 +441,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>

--- a/Collected_Data/Starfleet state U_data.xlsx
+++ b/Collected_Data/Starfleet state U_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\styler\Documents\CAIR 2025\Collected_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB831DC-AFDD-4791-A217-625C58FBEA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5698F0F-7FBE-4A4B-BB08-02885A4F8DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="975" windowWidth="20805" windowHeight="15345" xr2:uid="{23C98854-689D-4614-BCEF-00B1B8F250B6}"/>
+    <workbookView xWindow="18900" yWindow="1050" windowWidth="30780" windowHeight="18435" xr2:uid="{23C98854-689D-4614-BCEF-00B1B8F250B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="144">
   <si>
     <t>Student_ID</t>
   </si>
@@ -59,14 +59,422 @@
     <t>Hours of Participation</t>
   </si>
   <si>
-    <t>Notes</t>
+    <t>Merlin</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>Barton</t>
+  </si>
+  <si>
+    <t>Clinton</t>
+  </si>
+  <si>
+    <t>Francis</t>
+  </si>
+  <si>
+    <t>Mulder</t>
+  </si>
+  <si>
+    <t>Fox</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Humbert</t>
+  </si>
+  <si>
+    <t>Raskolnikov</t>
+  </si>
+  <si>
+    <t>Rodion</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Cassel</t>
+  </si>
+  <si>
+    <t>Cinder</t>
+  </si>
+  <si>
+    <t>Linh</t>
+  </si>
+  <si>
+    <t>Tam</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>Song</t>
+  </si>
+  <si>
+    <t>Mellark</t>
+  </si>
+  <si>
+    <t>Peeta</t>
+  </si>
+  <si>
+    <t>Potter</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Hannon</t>
+  </si>
+  <si>
+    <t>Erin</t>
+  </si>
+  <si>
+    <t>Scully</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
+    <t>Katherine</t>
+  </si>
+  <si>
+    <t>Kenobi</t>
+  </si>
+  <si>
+    <t>Obi-Wan</t>
+  </si>
+  <si>
+    <t>Elessar</t>
+  </si>
+  <si>
+    <t>Aragorn</t>
+  </si>
+  <si>
+    <t>Geller</t>
+  </si>
+  <si>
+    <t>Monica</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Marvel</t>
+  </si>
+  <si>
+    <t>Captain</t>
+  </si>
+  <si>
+    <t>Swan</t>
+  </si>
+  <si>
+    <t>Isabella</t>
+  </si>
+  <si>
+    <t>Marie</t>
+  </si>
+  <si>
+    <t>Weasley</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
+    <t>Bilius</t>
+  </si>
+  <si>
+    <t>McMurphy</t>
+  </si>
+  <si>
+    <t>Randall</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Snape</t>
+  </si>
+  <si>
+    <t>Severus</t>
+  </si>
+  <si>
+    <t>Buffay</t>
+  </si>
+  <si>
+    <t>Phoebe</t>
+  </si>
+  <si>
+    <t>Pevensie</t>
+  </si>
+  <si>
+    <t>Lucy</t>
+  </si>
+  <si>
+    <t>Eleanor</t>
+  </si>
+  <si>
+    <t>Wyatt</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t>Fray</t>
+  </si>
+  <si>
+    <t>Sabrina</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Odinson</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>Kirk</t>
+  </si>
+  <si>
+    <t>Tiberius</t>
+  </si>
+  <si>
+    <t>Romanoff</t>
+  </si>
+  <si>
+    <t>Natasha</t>
+  </si>
+  <si>
+    <t>Alianovna</t>
+  </si>
+  <si>
+    <t>Hofstadter</t>
+  </si>
+  <si>
+    <t>Leonard</t>
+  </si>
+  <si>
+    <t>L.</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>Prince</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Banner</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
+    <t>Scudder</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>Jefferson</t>
+  </si>
+  <si>
+    <t>Carlie</t>
+  </si>
+  <si>
+    <t>Karev</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Knope</t>
+  </si>
+  <si>
+    <t>Leslie</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
+    <t>Ross</t>
+  </si>
+  <si>
+    <t>Eustace</t>
+  </si>
+  <si>
+    <t>of Rivia</t>
+  </si>
+  <si>
+    <t>Geralt</t>
+  </si>
+  <si>
+    <t>Fett</t>
+  </si>
+  <si>
+    <t>Boba</t>
+  </si>
+  <si>
+    <t>Flash</t>
+  </si>
+  <si>
+    <t>The</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>Finch</t>
+  </si>
+  <si>
+    <t>Scout</t>
+  </si>
+  <si>
+    <t>Simpson</t>
+  </si>
+  <si>
+    <t>Homer</t>
+  </si>
+  <si>
+    <t>Jay</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
+    <t>Hartwell</t>
+  </si>
+  <si>
+    <t>Stark</t>
+  </si>
+  <si>
+    <t>Sansa</t>
+  </si>
+  <si>
+    <t>Darcy</t>
+  </si>
+  <si>
+    <t>Fitzwilliam</t>
+  </si>
+  <si>
+    <t>Xena</t>
+  </si>
+  <si>
+    <t>Bartholomew</t>
+  </si>
+  <si>
+    <t>Jo-Jo</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>Jon</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>Marty</t>
+  </si>
+  <si>
+    <t>McFly</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Hawthorne</t>
+  </si>
+  <si>
+    <t>Baggins</t>
+  </si>
+  <si>
+    <t>Frodo</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Chase</t>
+  </si>
+  <si>
+    <t>Annabeth</t>
+  </si>
+  <si>
+    <t>Athena</t>
+  </si>
+  <si>
+    <t>Picard</t>
+  </si>
+  <si>
+    <t>Jean-Luc</t>
+  </si>
+  <si>
+    <t>Targaryen</t>
+  </si>
+  <si>
+    <t>Daenerys</t>
+  </si>
+  <si>
+    <t>Stormborn</t>
+  </si>
+  <si>
+    <t>Jeffries</t>
+  </si>
+  <si>
+    <t>The Temporal Anomaly Watch</t>
+  </si>
+  <si>
+    <t>Xenobotany Society</t>
+  </si>
+  <si>
+    <t>Sentient AI Ethics Debate Team</t>
+  </si>
+  <si>
+    <t>Cosmic Cartography Society</t>
+  </si>
+  <si>
+    <t>ABW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +486,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -101,9 +515,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,15 +863,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA27F8DA-A225-4BFB-9E7F-13B2D04A13BB}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,17 +896,1305 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>225412004</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2">
+        <v>20110807</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>221303013</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2">
+        <v>20070301</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="2">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>224101021</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="2">
+        <v>20080921</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" s="2">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>124101029</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2">
+        <v>20110203</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>223205037</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2">
+        <v>20100628</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>221101044</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="2">
+        <v>20110515</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" s="2">
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>222303051</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="2">
+        <v>20080308</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>221101008</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2">
+        <v>20070228</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="2">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>222205015</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="2">
+        <v>20090518</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>222412023</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="2">
+        <v>20070520</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="2">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>222412031</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="2">
+        <v>20081127</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>221412039</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="2">
+        <v>20110425</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="2">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>223412046</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="2">
+        <v>20080213</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>224101053</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2">
+        <v>20071119</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>224205002</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2">
+        <v>20101123</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="2">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>225412010</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="2">
+        <v>20190422</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>224412017</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="2">
+        <v>20100913</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="2">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>225412025</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="2">
+        <v>20090731</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G19" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>224205033</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="2">
+        <v>20070729</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="2">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>225101040</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="2">
+        <v>20091014</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>221205048</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="2">
+        <v>20071028</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="2">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>222412055</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="2">
+        <v>20090123</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G23" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>223303006</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="2">
+        <v>20080511</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G24" s="2">
+        <v>74.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>224205012</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="2">
+        <v>20101017</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>222303019</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="2">
+        <v>20111224</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" s="2">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>222303027</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="2">
+        <v>20100808</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>225412035</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="2">
+        <v>20090901</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="2">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>223303042</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="2">
+        <v>20100407</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>221205050</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="2">
+        <v>20091218</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G30" s="2">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>222412055</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="2">
+        <v>20090122</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31" s="2">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>223101001</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2">
+        <v>20080615</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G32" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>221303003</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="2">
+        <v>20070104</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>222205005</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="2">
+        <v>20090319</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G34" s="2">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>224412007</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="2">
+        <v>20101230</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35" s="2">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>222303009</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="2">
+        <v>20110914</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G36" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>221101011</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="2">
+        <v>20080706</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G37" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>225412014</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="2">
+        <v>20111105</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G38" s="2">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>223303016</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="2">
+        <v>20080829</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G39" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>221101018</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="2">
+        <v>20070410</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G40" s="2">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>223412020</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="2">
+        <v>20090602</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G41" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>221205022</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="2">
+        <v>20100726</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G42" s="2">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>223101024</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="2">
+        <v>20110116</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G43" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>221101026</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" s="2">
+        <v>20081009</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G44" s="2">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>223412028</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="2">
+        <v>20070618</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G45" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>221205030</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="2">
+        <v>20090812</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G46" s="2">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>223101032</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="2">
+        <v>20100519</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G47" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>221303034</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" s="2">
+        <v>20110310</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G48" s="2">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>222205036</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="2">
+        <v>20081205</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G49" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>224303038</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="2">
+        <v>20070806</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G50" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>222205041</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" s="2">
+        <v>20080102</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G51" s="2">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>224412043</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" s="2">
+        <v>20070917</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G52" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>22230304</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="2">
+        <v>20091129</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G53" s="2">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>224101047</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="2">
+        <v>20100321</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G54" s="2">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>224101049</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E55" s="2">
+        <v>20110609</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G55" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>222303051</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="2">
+        <v>20080308</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G56" s="2">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>224101053</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E57" s="2">
+        <v>20071119</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G57" s="2">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>224303058</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" s="2">
+        <v>20071212</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G58" s="2">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>224303058</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E59" s="2">
+        <v>20071212</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G59" s="2">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H116">
+    <sortCondition ref="G2:G116"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Collected_Data/Starfleet state U_data.xlsx
+++ b/Collected_Data/Starfleet state U_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\styler\Documents\CAIR 2025\Collected_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5698F0F-7FBE-4A4B-BB08-02885A4F8DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64270A30-F9EB-464F-B084-E9331CFFEAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18900" yWindow="1050" windowWidth="30780" windowHeight="18435" xr2:uid="{23C98854-689D-4614-BCEF-00B1B8F250B6}"/>
+    <workbookView xWindow="23070" yWindow="1785" windowWidth="26505" windowHeight="18435" xr2:uid="{23C98854-689D-4614-BCEF-00B1B8F250B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Date_of_Birth</t>
   </si>
   <si>
-    <t>CAIR_Program_Name</t>
-  </si>
-  <si>
     <t>Hours of Participation</t>
   </si>
   <si>
@@ -468,6 +465,9 @@
   </si>
   <si>
     <t>ABW</t>
+  </si>
+  <si>
+    <t>CAIR_Name</t>
   </si>
 </sst>
 </file>
@@ -517,16 +517,16 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -866,7 +866,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,10 +897,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -908,17 +908,17 @@
         <v>225412004</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2">
         <v>20110807</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G2" s="2">
         <v>51</v>
@@ -929,17 +929,17 @@
         <v>221303013</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="2">
         <v>20070301</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G3" s="2">
         <v>12.5</v>
@@ -950,19 +950,19 @@
         <v>224101021</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="E4" s="2">
         <v>20080921</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G4" s="2">
         <v>76.5</v>
@@ -973,17 +973,17 @@
         <v>124101029</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2">
         <v>20110203</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G5" s="2">
         <v>33</v>
@@ -994,17 +994,17 @@
         <v>223205037</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2">
         <v>20100628</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G6" s="2">
         <v>6</v>
@@ -1015,19 +1015,19 @@
         <v>221101044</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="2">
         <v>20110515</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G7" s="2">
         <v>64.5</v>
@@ -1038,19 +1038,19 @@
         <v>222303051</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="E8" s="2">
         <v>20080308</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G8" s="2">
         <v>21</v>
@@ -1061,17 +1061,17 @@
         <v>221101008</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2">
         <v>20070228</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G9" s="2">
         <v>48.5</v>
@@ -1082,17 +1082,17 @@
         <v>222205015</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="2">
         <v>20090518</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G10" s="2">
         <v>70</v>
@@ -1103,19 +1103,19 @@
         <v>222412023</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="E11" s="2">
         <v>20070520</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G11" s="2">
         <v>15.5</v>
@@ -1126,19 +1126,19 @@
         <v>222412031</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="E12" s="2">
         <v>20081127</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G12" s="2">
         <v>37</v>
@@ -1149,17 +1149,17 @@
         <v>221412039</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="2">
         <v>20110425</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G13" s="2">
         <v>60.5</v>
@@ -1170,19 +1170,19 @@
         <v>223412046</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="E14" s="2">
         <v>20080213</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G14" s="2">
         <v>7.5</v>
@@ -1193,17 +1193,17 @@
         <v>224101053</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="2">
         <v>20071119</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G15" s="2">
         <v>55</v>
@@ -1214,19 +1214,19 @@
         <v>224205002</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="E16" s="2">
         <v>20101123</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G16" s="2">
         <v>26.5</v>
@@ -1237,17 +1237,17 @@
         <v>225412010</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="2">
         <v>20190422</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G17" s="2">
         <v>78</v>
@@ -1258,19 +1258,19 @@
         <v>224412017</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="E18" s="2">
         <v>20100913</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G18" s="2">
         <v>42.5</v>
@@ -1281,19 +1281,19 @@
         <v>225412025</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="E19" s="2">
         <v>20090731</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G19" s="2">
         <v>18</v>
@@ -1304,19 +1304,19 @@
         <v>224205033</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="E20" s="2">
         <v>20070729</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G20" s="2">
         <v>68.5</v>
@@ -1327,19 +1327,19 @@
         <v>225101040</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" s="2">
         <v>20091014</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G21" s="2">
         <v>30</v>
@@ -1350,19 +1350,19 @@
         <v>221205048</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2">
         <v>20071028</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G22" s="2">
         <v>53.5</v>
@@ -1373,17 +1373,17 @@
         <v>222412055</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="2">
         <v>20090123</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G23" s="2">
         <v>9</v>
@@ -1394,19 +1394,19 @@
         <v>223303006</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="E24" s="2">
         <v>20080511</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G24" s="2">
         <v>74.5</v>
@@ -1417,17 +1417,17 @@
         <v>224205012</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="2">
         <v>20101017</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G25" s="2">
         <v>46</v>
@@ -1438,17 +1438,17 @@
         <v>222303019</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="2">
         <v>20111224</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G26" s="2">
         <v>10.5</v>
@@ -1459,19 +1459,19 @@
         <v>222303027</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="E27" s="2">
         <v>20100808</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G27" s="2">
         <v>61</v>
@@ -1482,19 +1482,19 @@
         <v>225412035</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="E28" s="2">
         <v>20090901</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G28" s="2">
         <v>23.5</v>
@@ -1505,19 +1505,19 @@
         <v>223303042</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="E29" s="2">
         <v>20100407</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G29" s="2">
         <v>40</v>
@@ -1528,19 +1528,19 @@
         <v>221205050</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="E30" s="2">
         <v>20091218</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G30" s="2">
         <v>72.5</v>
@@ -1551,17 +1551,17 @@
         <v>222412055</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="2">
         <v>20090122</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G31" s="2">
         <v>28.5</v>
@@ -1572,19 +1572,19 @@
         <v>223101001</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="E32" s="2">
         <v>20080615</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G32" s="2">
         <v>56</v>
@@ -1595,19 +1595,19 @@
         <v>221303003</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="E33" s="2">
         <v>20070104</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G33" s="2">
         <v>13</v>
@@ -1618,19 +1618,19 @@
         <v>222205005</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E34" s="2">
         <v>20090319</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G34" s="2">
         <v>66.5</v>
@@ -1641,19 +1641,19 @@
         <v>224412007</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="E35" s="2">
         <v>20101230</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G35" s="2">
         <v>35.5</v>
@@ -1664,19 +1664,19 @@
         <v>222303009</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="E36" s="2">
         <v>20110914</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G36" s="2">
         <v>77</v>
@@ -1687,19 +1687,19 @@
         <v>221101011</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="E37" s="2">
         <v>20080706</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G37" s="2">
         <v>49</v>
@@ -1710,19 +1710,19 @@
         <v>225412014</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="E38" s="2">
         <v>20111105</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G38" s="2">
         <v>20.5</v>
@@ -1733,19 +1733,19 @@
         <v>223303016</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E39" s="2">
         <v>20080829</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G39" s="2">
         <v>6.5</v>
@@ -1756,19 +1756,19 @@
         <v>221101018</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="E40" s="2">
         <v>20070410</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G40" s="2">
         <v>69.5</v>
@@ -1779,17 +1779,17 @@
         <v>223412020</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="2">
         <v>20090602</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G41" s="2">
         <v>39</v>
@@ -1800,19 +1800,19 @@
         <v>221205022</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="E42" s="2">
         <v>20100726</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G42" s="2">
         <v>58.5</v>
@@ -1823,17 +1823,17 @@
         <v>223101024</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="2">
         <v>20110116</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G43" s="2">
         <v>25</v>
@@ -1844,19 +1844,19 @@
         <v>221101026</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="E44" s="2">
         <v>20081009</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G44" s="2">
         <v>71.5</v>
@@ -1867,19 +1867,19 @@
         <v>223412028</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="E45" s="2">
         <v>20070618</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G45" s="2">
         <v>44</v>
@@ -1890,19 +1890,19 @@
         <v>221205030</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="E46" s="2">
         <v>20090812</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G46" s="2">
         <v>17.5</v>
@@ -1913,17 +1913,17 @@
         <v>223101032</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E47" s="2">
         <v>20100519</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G47" s="2">
         <v>63</v>
@@ -1934,19 +1934,19 @@
         <v>221303034</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="E48" s="2">
         <v>20110310</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G48" s="2">
         <v>32.5</v>
@@ -1957,17 +1957,17 @@
         <v>222205036</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="2">
         <v>20081205</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G49" s="2">
         <v>75</v>
@@ -1978,17 +1978,17 @@
         <v>224303038</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="2">
         <v>20070806</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G50" s="2">
         <v>11</v>
@@ -1999,19 +1999,19 @@
         <v>222205041</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="E51" s="2">
         <v>20080102</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G51" s="2">
         <v>57.5</v>
@@ -2022,19 +2022,19 @@
         <v>224412043</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="D52" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E52" s="2">
         <v>20070917</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G52" s="2">
         <v>29</v>
@@ -2046,14 +2046,14 @@
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="2">
         <v>20091129</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G53" s="2">
         <v>41.5</v>
@@ -2064,17 +2064,17 @@
         <v>224101047</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="2">
         <v>20100321</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G54" s="2">
         <v>70.5</v>
@@ -2086,16 +2086,16 @@
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="E55" s="2">
         <v>20110609</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G55" s="2">
         <v>22</v>
@@ -2106,17 +2106,17 @@
         <v>222303051</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="2">
         <v>20080308</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G56" s="2">
         <v>50.5</v>
@@ -2127,19 +2127,19 @@
         <v>224101053</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="E57" s="2">
         <v>20071119</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G57" s="2">
         <v>8.5</v>
@@ -2150,19 +2150,19 @@
         <v>224303058</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="D58" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="E58" s="2">
         <v>20071212</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G58" s="2">
         <v>25.5</v>
@@ -2173,19 +2173,19 @@
         <v>224303058</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="E59" s="2">
         <v>20071212</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G59" s="2">
         <v>42</v>

--- a/Collected_Data/Starfleet state U_data.xlsx
+++ b/Collected_Data/Starfleet state U_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\styler\Documents\CAIR 2025\Collected_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64270A30-F9EB-464F-B084-E9331CFFEAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B998148A-BD9A-465C-AF40-12EEB5CCA063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23070" yWindow="1785" windowWidth="26505" windowHeight="18435" xr2:uid="{23C98854-689D-4614-BCEF-00B1B8F250B6}"/>
+    <workbookView xWindow="26085" yWindow="750" windowWidth="24450" windowHeight="18870" xr2:uid="{23C98854-689D-4614-BCEF-00B1B8F250B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="196">
   <si>
     <t>Student_ID</t>
   </si>
@@ -47,9 +47,6 @@
     <t>First_Name</t>
   </si>
   <si>
-    <t>Middle_Initial</t>
-  </si>
-  <si>
     <t>Date_of_Birth</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>Clinton</t>
   </si>
   <si>
-    <t>Francis</t>
-  </si>
-  <si>
     <t>Mulder</t>
   </si>
   <si>
@@ -86,9 +80,6 @@
     <t>Humbert</t>
   </si>
   <si>
-    <t>Raskolnikov</t>
-  </si>
-  <si>
     <t>Rodion</t>
   </si>
   <si>
@@ -143,27 +134,18 @@
     <t>Katherine</t>
   </si>
   <si>
-    <t>Kenobi</t>
-  </si>
-  <si>
     <t>Obi-Wan</t>
   </si>
   <si>
     <t>Elessar</t>
   </si>
   <si>
-    <t>Aragorn</t>
-  </si>
-  <si>
     <t>Geller</t>
   </si>
   <si>
     <t>Monica</t>
   </si>
   <si>
-    <t>Elizabeth</t>
-  </si>
-  <si>
     <t>Marvel</t>
   </si>
   <si>
@@ -173,9 +155,6 @@
     <t>Swan</t>
   </si>
   <si>
-    <t>Isabella</t>
-  </si>
-  <si>
     <t>Marie</t>
   </si>
   <si>
@@ -224,9 +203,6 @@
     <t>Ben</t>
   </si>
   <si>
-    <t>Stephen</t>
-  </si>
-  <si>
     <t>Fray</t>
   </si>
   <si>
@@ -272,15 +248,9 @@
     <t>Nick</t>
   </si>
   <si>
-    <t>Miller</t>
-  </si>
-  <si>
     <t>Prince</t>
   </si>
   <si>
-    <t>Diana</t>
-  </si>
-  <si>
     <t>Banner</t>
   </si>
   <si>
@@ -296,24 +266,15 @@
     <t>Matt</t>
   </si>
   <si>
-    <t>Jefferson</t>
-  </si>
-  <si>
     <t>Carlie</t>
   </si>
   <si>
     <t>Karev</t>
   </si>
   <si>
-    <t>Alexander</t>
-  </si>
-  <si>
     <t>Michael</t>
   </si>
   <si>
-    <t>Knope</t>
-  </si>
-  <si>
     <t>Leslie</t>
   </si>
   <si>
@@ -359,9 +320,6 @@
     <t>Homer</t>
   </si>
   <si>
-    <t>Jay</t>
-  </si>
-  <si>
     <t>White</t>
   </si>
   <si>
@@ -380,24 +338,15 @@
     <t>Darcy</t>
   </si>
   <si>
-    <t>Fitzwilliam</t>
-  </si>
-  <si>
     <t>Xena</t>
   </si>
   <si>
-    <t>Bartholomew</t>
-  </si>
-  <si>
     <t>Jo-Jo</t>
   </si>
   <si>
     <t>Snow</t>
   </si>
   <si>
-    <t>Jon</t>
-  </si>
-  <si>
     <t>Santiago</t>
   </si>
   <si>
@@ -407,15 +356,6 @@
     <t>Marty</t>
   </si>
   <si>
-    <t>McFly</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Hawthorne</t>
-  </si>
-  <si>
     <t>Baggins</t>
   </si>
   <si>
@@ -431,9 +371,6 @@
     <t>Annabeth</t>
   </si>
   <si>
-    <t>Athena</t>
-  </si>
-  <si>
     <t>Picard</t>
   </si>
   <si>
@@ -468,13 +405,243 @@
   </si>
   <si>
     <t>CAIR_Name</t>
+  </si>
+  <si>
+    <t>212537453</t>
+  </si>
+  <si>
+    <t>212631581</t>
+  </si>
+  <si>
+    <t>212744394</t>
+  </si>
+  <si>
+    <t>212954131</t>
+  </si>
+  <si>
+    <t>212855145</t>
+  </si>
+  <si>
+    <t>212557740</t>
+  </si>
+  <si>
+    <t>212242365</t>
+  </si>
+  <si>
+    <t>212580708</t>
+  </si>
+  <si>
+    <t>212623041</t>
+  </si>
+  <si>
+    <t>212175248</t>
+  </si>
+  <si>
+    <t>212278324</t>
+  </si>
+  <si>
+    <t>212351766</t>
+  </si>
+  <si>
+    <t>212443195</t>
+  </si>
+  <si>
+    <t>222412039</t>
+  </si>
+  <si>
+    <t>222412031</t>
+  </si>
+  <si>
+    <t>222412020</t>
+  </si>
+  <si>
+    <t>222412046</t>
+  </si>
+  <si>
+    <t>232944532</t>
+  </si>
+  <si>
+    <t>232582668</t>
+  </si>
+  <si>
+    <t>232757464</t>
+  </si>
+  <si>
+    <t>232119306</t>
+  </si>
+  <si>
+    <t>232104027</t>
+  </si>
+  <si>
+    <t>232637880</t>
+  </si>
+  <si>
+    <t>232559925</t>
+  </si>
+  <si>
+    <t>242550694</t>
+  </si>
+  <si>
+    <t>242620306</t>
+  </si>
+  <si>
+    <t>242561896</t>
+  </si>
+  <si>
+    <t>242503856</t>
+  </si>
+  <si>
+    <t>242743452</t>
+  </si>
+  <si>
+    <t>242369818</t>
+  </si>
+  <si>
+    <t>242393927</t>
+  </si>
+  <si>
+    <t>242677299</t>
+  </si>
+  <si>
+    <t>242741082</t>
+  </si>
+  <si>
+    <t>242545205</t>
+  </si>
+  <si>
+    <t>242529297</t>
+  </si>
+  <si>
+    <t>242765219</t>
+  </si>
+  <si>
+    <t>214303013</t>
+  </si>
+  <si>
+    <t>214303016</t>
+  </si>
+  <si>
+    <t>214101047</t>
+  </si>
+  <si>
+    <t>224303038</t>
+  </si>
+  <si>
+    <t>224412023</t>
+  </si>
+  <si>
+    <t>224101024</t>
+  </si>
+  <si>
+    <t>224303042</t>
+  </si>
+  <si>
+    <t>224205033</t>
+  </si>
+  <si>
+    <t>234101053</t>
+  </si>
+  <si>
+    <t>234205002</t>
+  </si>
+  <si>
+    <t>234101040</t>
+  </si>
+  <si>
+    <t>234412014</t>
+  </si>
+  <si>
+    <t>234412035</t>
+  </si>
+  <si>
+    <t>244101026</t>
+  </si>
+  <si>
+    <t>244101044</t>
+  </si>
+  <si>
+    <t>244205022</t>
+  </si>
+  <si>
+    <t>244303003</t>
+  </si>
+  <si>
+    <t>244205041</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Torrance</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Seamus</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Princess</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Middle_Name</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Mc Fly</t>
+  </si>
+  <si>
+    <t>Raskolnicoff</t>
+  </si>
+  <si>
+    <t>Nope</t>
+  </si>
+  <si>
+    <t>Bart</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <r>
+      <t>Kenob</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>í</t>
+    </r>
+  </si>
+  <si>
+    <t>"Bella"</t>
+  </si>
+  <si>
+    <t>Fitzwil;iam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,7 +658,14 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -515,7 +689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -523,17 +697,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -863,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA27F8DA-A225-4BFB-9E7F-13B2D04A13BB}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,1310 +1082,1221 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>225412004</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2">
-        <v>20110807</v>
+      <c r="A2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5">
+        <v>20060611</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="G2" s="2">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>221303013</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>37</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="2">
-        <v>20070301</v>
+        <v>177</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="5">
+        <v>20031008</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="G3" s="2">
         <v>12.5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>224101021</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="2">
-        <v>20080921</v>
+      <c r="A4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="5">
+        <v>20070226</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="G4" s="2">
         <v>76.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>124101029</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2">
-        <v>20110203</v>
+      <c r="A5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="5">
+        <v>20040714</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="G5" s="2">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>223205037</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2">
-        <v>20100628</v>
+      <c r="A6" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="5">
+        <v>20071120</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="G6" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>221101044</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="2">
-        <v>20110515</v>
+      <c r="A7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5">
+        <v>20060623</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="G7" s="2">
         <v>64.5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>222303051</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" s="2">
-        <v>20080308</v>
+      <c r="A8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5">
+        <v>20021225</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="G8" s="2">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>221101008</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2">
-        <v>20070228</v>
+      <c r="A9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5">
+        <v>20070304</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="G9" s="2">
         <v>48.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>222205015</v>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="2">
-        <v>20090518</v>
+      <c r="E10" s="5">
+        <v>20070230</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="G10" s="2">
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>222412023</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="2">
-        <v>20070520</v>
+      <c r="A11" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="5">
+        <v>20030501</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="G11" s="2">
         <v>15.5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>222412031</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="2">
-        <v>20081127</v>
+      <c r="A12" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="5">
+        <v>20040803</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="G12" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>221412039</v>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="2">
-        <v>20110425</v>
+        <v>13</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" s="5">
+        <v>20040626</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="G13" s="2">
         <v>60.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>223412046</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E14" s="2">
-        <v>20080213</v>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="5">
+        <v>20071120</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="G14" s="2">
         <v>7.5</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>224101053</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="2">
-        <v>20071119</v>
+      <c r="A15" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5">
+        <v>10031029</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="G15" s="2">
         <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>224205002</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="2">
-        <v>20101123</v>
+      <c r="A16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5">
+        <v>20040416</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="G16" s="2">
         <v>26.5</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>225412010</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="2">
-        <v>20190422</v>
+      <c r="A17" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" s="5">
+        <v>20050719</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="G17" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>224412017</v>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>48</v>
+        <v>190</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="2">
-        <v>20100913</v>
+        <v>101</v>
+      </c>
+      <c r="E18" s="5">
+        <v>20021017</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="G18" s="2">
         <v>42.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>225412025</v>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="2">
-        <v>20090731</v>
+        <v>39</v>
+      </c>
+      <c r="E19" s="5">
+        <v>20070614</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="G19" s="2">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>224205033</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" s="2">
-        <v>20070729</v>
+      <c r="A20" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="5">
+        <v>20031008</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="G20" s="2">
         <v>68.5</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>225101040</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="2">
-        <v>20091014</v>
+      <c r="A21" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="5">
+        <v>20071211</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="G21" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>221205048</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="5">
+        <v>20030202</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="2">
-        <v>20071028</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="G22" s="2">
         <v>53.5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>222412055</v>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="2">
-        <v>20090123</v>
+        <v>51</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="5">
+        <v>20060713</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="G23" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>223303006</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="2">
-        <v>20080511</v>
+      <c r="A24" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24" s="5">
+        <v>20070614</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="G24" s="2">
         <v>74.5</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>224205012</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="2">
-        <v>20101017</v>
+      <c r="A25" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5">
+        <v>20020727</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="G25" s="2">
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>222303019</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="2">
-        <v>20111224</v>
+      <c r="A26" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5">
+        <v>20030315</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="G26" s="2">
         <v>10.5</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>222303027</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="2">
-        <v>20100808</v>
+      <c r="A27" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="5">
+        <v>12052007</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="G27" s="2">
         <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>225412035</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="2">
-        <v>20090901</v>
+      <c r="A28" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="5">
+        <v>20071109</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="G28" s="2">
         <v>23.5</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>223303042</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E29" s="2">
-        <v>20100407</v>
+      <c r="A29" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="5">
+        <v>20070126</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="G29" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>221205050</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E30" s="2">
-        <v>20091218</v>
+      <c r="A30" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5">
+        <v>20020414</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="G30" s="2">
         <v>72.5</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>222412055</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="2">
-        <v>20090122</v>
+      <c r="A31" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E31" s="5">
+        <v>20070504</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="G31" s="2">
         <v>28.5</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>223101001</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="2">
-        <v>20080615</v>
+      <c r="A32" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5">
+        <v>20070126</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="G32" s="2">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>221303003</v>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="2">
-        <v>20070104</v>
+        <v>76</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5">
+        <v>20070205</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="G33" s="2">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>222205005</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="2">
-        <v>20090319</v>
+      <c r="A34" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="5">
+        <v>20051019</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="G34" s="2">
         <v>66.5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>224412007</v>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>22</v>
+        <v>193</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="2">
-        <v>20101230</v>
+        <v>32</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5">
+        <v>20020414</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="G35" s="2">
         <v>35.5</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>222303009</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" s="2">
-        <v>20110914</v>
+      <c r="A36" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="5">
+        <v>20050905</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="G36" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>221101011</v>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="2">
-        <v>20080706</v>
+        <v>52</v>
+      </c>
+      <c r="E37" s="5">
+        <v>20070425</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="G37" s="2">
         <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>225412014</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="2">
-        <v>20111105</v>
+      <c r="A38" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="5">
+        <v>20060719</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="G38" s="2">
         <v>20.5</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>223303016</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="2">
-        <v>20080829</v>
+      <c r="A39" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="5">
+        <v>20050515</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="G39" s="2">
         <v>6.5</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>221101018</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" s="2">
-        <v>20070410</v>
+      <c r="A40" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="5">
+        <v>20070604</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="G40" s="2">
         <v>69.5</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>223412020</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="2">
-        <v>20090602</v>
+      <c r="A41" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5">
+        <v>20070401</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="G41" s="2">
         <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>221205022</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E42" s="2">
-        <v>20100726</v>
+      <c r="A42" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="5">
+        <v>20021229</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="G42" s="2">
         <v>58.5</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>223101024</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="2">
-        <v>20110116</v>
+      <c r="A43" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="5">
+        <v>20040302</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="G43" s="2">
         <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>221101026</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E44" s="2">
-        <v>20081009</v>
+      <c r="A44" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="5">
+        <v>20060510</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="G44" s="2">
         <v>71.5</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>223412028</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="A45" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="C45" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E45" s="2">
-        <v>20070618</v>
+      <c r="E45" s="5">
+        <v>20020620</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="G45" s="2">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>221205030</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E46" s="2">
-        <v>20090812</v>
+      <c r="A46" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="5">
+        <v>20060605</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="G46" s="2">
         <v>17.5</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>223101032</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E47" s="2">
-        <v>20100519</v>
+      <c r="A47" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E47" s="5">
+        <v>20060113</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="G47" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>221303034</v>
-      </c>
-      <c r="B48" s="3" t="s">
+      <c r="A48" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E48" s="2">
-        <v>20110310</v>
+      <c r="D48" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="5">
+        <v>20060812</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="G48" s="2">
         <v>32.5</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>222205036</v>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="D49" s="4"/>
-      <c r="E49" s="2">
-        <v>20081205</v>
+      <c r="E49" s="5">
+        <v>20060929</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="G49" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>224303038</v>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="2">
-        <v>20070806</v>
+        <v>81</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50" s="5">
+        <v>20061212</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="G50" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>222205041</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E51" s="2">
-        <v>20080102</v>
+      <c r="A51" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="5">
+        <v>20060401</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="G51" s="2">
         <v>57.5</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>224412043</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E52" s="2">
-        <v>20070917</v>
+      <c r="A52" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="5">
+        <v>20070407</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="G52" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>22230304</v>
-      </c>
-      <c r="B53" s="4"/>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="C53" s="4" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="D53" s="4"/>
-      <c r="E53" s="2">
-        <v>20091129</v>
+      <c r="E53" s="5">
+        <v>20041216</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="G53" s="2">
         <v>41.5</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>224101047</v>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="C54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="5">
+        <v>20040513</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="2">
-        <v>20100321</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="G54" s="2">
         <v>70.5</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>224101049</v>
-      </c>
-      <c r="B55" s="4"/>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="C55" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E55" s="2">
-        <v>20110609</v>
+        <v>93</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="5">
+        <v>20070704</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="G55" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>222303051</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="2">
-        <v>20080308</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G56" s="2">
-        <v>50.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>224101053</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E57" s="2">
-        <v>20071119</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G57" s="2">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
-        <v>224303058</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E58" s="2">
-        <v>20071212</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G58" s="2">
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
-        <v>224303058</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E59" s="2">
-        <v>20071212</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G59" s="2">
-        <v>42</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H116">
-    <sortCondition ref="G2:G116"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H112">
+    <sortCondition ref="G2:G112"/>
   </sortState>
+  <conditionalFormatting sqref="A2:A55">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Collected_Data/Starfleet state U_data.xlsx
+++ b/Collected_Data/Starfleet state U_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\styler\Documents\CAIR 2025\Collected_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B998148A-BD9A-465C-AF40-12EEB5CCA063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D76DE5-6C55-42FB-B2C8-4DC5A3D89ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26085" yWindow="750" windowWidth="24450" windowHeight="18870" xr2:uid="{23C98854-689D-4614-BCEF-00B1B8F250B6}"/>
+    <workbookView xWindow="10875" yWindow="1290" windowWidth="24420" windowHeight="18870" xr2:uid="{23C98854-689D-4614-BCEF-00B1B8F250B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="196">
   <si>
     <t>Student_ID</t>
   </si>
@@ -1054,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA27F8DA-A225-4BFB-9E7F-13B2D04A13BB}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2290,11 +2290,78 @@
         <v>22</v>
       </c>
     </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="5">
+        <v>20020414</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G56" s="2">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E57" s="5">
+        <v>20060510</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G57" s="2">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E58" s="5">
+        <v>20040714</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G58" s="2">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H112">
     <sortCondition ref="G2:G112"/>
   </sortState>
-  <conditionalFormatting sqref="A2:A55">
+  <conditionalFormatting sqref="A2:A58">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
